--- a/suivi_heures_v2.xlsx
+++ b/suivi_heures_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miste\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mineon\Desktop\public_sae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E2E50A-3898-4FD4-A068-3CCAEC068992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36C8B1-2F8E-4F7F-9DB2-6CDA9E41B8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{D987A796-D952-4637-99F4-293E8C70195A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D987A796-D952-4637-99F4-293E8C70195A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Catégorie</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Création d'un microsoft planner pour répertorier la liste des tâches à réaliser ainsi que pour le suivi</t>
+  </si>
+  <si>
+    <t>Ajout de tâches dans le planner &amp; modification fichier excel</t>
+  </si>
+  <si>
+    <t>Ajout en base de données d'une colonne qui spécifie le rôle par défaut ou non. Modification de l'API pour empêcher la modification d'un rôle par défaut. Ajout d'un cadenas rouge bloqué et vert débloqué pour différencier les deux</t>
+  </si>
+  <si>
+    <t>Maintenance du planner</t>
   </si>
 </sst>
 </file>
@@ -111,10 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,21 +439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35505B7-E42A-4E77-B6FA-800249902BDE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="204.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -468,6 +473,39 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45369</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45369</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45369</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
